--- a/2021/scores/2D01/2D01.xlsx
+++ b/2021/scores/2D01/2D01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE42D1-7681-4EBE-9C37-B85FC3F0E583}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F512B89-BEC6-4BEE-B8AB-46446E05135C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,6 +1147,9 @@
       <c r="J23" t="s">
         <v>34</v>
       </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">

--- a/2021/scores/2D01/2D01.xlsx
+++ b/2021/scores/2D01/2D01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F512B89-BEC6-4BEE-B8AB-46446E05135C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88A9A5C-4649-41F9-AB41-471C2DD82F08}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="52">
   <si>
     <t>Александрова Анастасия Игоревна</t>
   </si>
@@ -131,18 +131,72 @@
   </si>
   <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>LB9</t>
+  </si>
+  <si>
+    <t>LB10</t>
+  </si>
+  <si>
+    <t>LB11</t>
+  </si>
+  <si>
+    <t>LB12</t>
+  </si>
+  <si>
+    <t>LB13</t>
+  </si>
+  <si>
+    <t>LB14</t>
+  </si>
+  <si>
+    <t>LB15</t>
+  </si>
+  <si>
+    <t>LB10.1</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Lec</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Итоговый рейтинг</t>
+  </si>
+  <si>
+    <t>Оценка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,12 +216,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,2157 +537,4389 @@
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Z27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C28">
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="L28" t="s">
         <v>36</v>
       </c>
       <c r="M28">
         <f>8*C28</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="X28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y28">
+        <f>M28</f>
+        <v>35</v>
+      </c>
+      <c r="Z28">
+        <v>10</v>
+      </c>
+      <c r="AA28">
+        <f>Y28+M28+K2+K2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29">
         <f>IF(C2="+",$C$28,0)</f>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:J29" si="0">IF(D2="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="D29:I29" si="0">IF(D2="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>IF(J2="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="K29">
         <f>SUM(C29:J29)</f>
-        <v>10.5</v>
+        <v>30.625</v>
       </c>
       <c r="L29">
         <v>0.7</v>
       </c>
       <c r="M29">
-        <f>L29*$M$28*K29/$M$28</f>
-        <v>7.3499999999999988</v>
+        <f>L29*K29</f>
+        <v>21.4375</v>
       </c>
       <c r="N29">
         <f>ROUND(K29+M29,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="O29">
+        <f>IF(L2="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:V29" si="1">IF(M2="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>SUM(O29:V29)</f>
+        <v>8.75</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f>X29*W29</f>
+        <v>8.75</v>
+      </c>
+      <c r="AA29">
+        <f>Y29+M29+K2+T2+Z29</f>
+        <v>40.1875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:J30" si="1">IF(C3="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C30:J30" si="2">IF(C3="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>4.375</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>4.375</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>4.375</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>4.375</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>4.375</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K54" si="2">SUM(C30:J30)</f>
-        <v>9</v>
+        <f t="shared" ref="K30:K54" si="3">SUM(C30:J30)</f>
+        <v>26.25</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <f>L30*$M$28*K30/$M$28</f>
-        <v>9</v>
+        <f>L30*K30</f>
+        <v>26.25</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N54" si="3">ROUND(K30+M30,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N30:N54" si="4">ROUND(K30+M30,0)</f>
+        <v>53</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O54" si="5">IF(L3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P54" si="6">IF(M3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q54" si="7">IF(N3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R54" si="8">IF(O3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S54" si="9">IF(P3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:T54" si="10">IF(Q3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30:U54" si="11">IF(R3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30:V54" si="12">IF(S3="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30:W54" si="13">SUM(O30:V30)</f>
+        <v>30.625</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ref="Y30:Y54" si="14">X30*W30</f>
+        <v>30.625</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ref="AA30:AA54" si="15">Y30+M30+K3+T3+Z30</f>
+        <v>66.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:J31" si="4">IF(C4="+",$C$28,0)</f>
+        <f t="shared" ref="C31:J31" si="16">IF(C4="+",$C$28,0)</f>
         <v>0</v>
       </c>
       <c r="D31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M54" si="17">L31*K31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ref="M31:M54" si="5">L31*$M$28*K31/$M$28</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:J32" si="6">IF(C5="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C32:J32" si="18">IF(C5="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>4.375</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>4.375</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>4.375</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>4.375</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>4.375</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>4.375</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
-        <v>10.5</v>
+        <f t="shared" si="3"/>
+        <v>30.625</v>
       </c>
       <c r="L32">
         <v>0.9</v>
       </c>
       <c r="M32">
+        <f t="shared" si="17"/>
+        <v>27.5625</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="5"/>
-        <v>9.4500000000000011</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="13"/>
+        <v>30.625</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="14"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="15"/>
+        <v>76.1875</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:J33" si="7">IF(C6="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C33:J33" si="19">IF(C6="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D33">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>4.375</v>
       </c>
       <c r="E33">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>4.375</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>4.375</v>
       </c>
       <c r="G33">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>4.375</v>
       </c>
       <c r="H33">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>4.375</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>4.375</v>
       </c>
       <c r="J33">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>4.375</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="13"/>
+        <v>17.5</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="14"/>
+        <v>17.5</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="15"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:J34" si="8">IF(C7="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C34:J34" si="20">IF(C7="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D34">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>4.375</v>
       </c>
       <c r="E34">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>4.375</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>4.375</v>
       </c>
       <c r="G34">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>4.375</v>
       </c>
       <c r="H34">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>4.375</v>
       </c>
       <c r="I34">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>4.375</v>
       </c>
       <c r="J34">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>4.375</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34">
+        <f t="shared" si="17"/>
+        <v>17.5</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="13"/>
+        <v>30.625</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="14"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="15"/>
+        <v>68.125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:J35" si="9">IF(C8="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C35:J35" si="21">IF(C8="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>4.375</v>
       </c>
       <c r="E35">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>4.375</v>
       </c>
       <c r="F35">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>4.375</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>4.375</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>4.375</v>
       </c>
       <c r="I35">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>4.375</v>
       </c>
       <c r="J35">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>4.375</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="13"/>
+        <v>30.625</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="14"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="15"/>
+        <v>85.625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:J36" si="10">IF(C9="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C36:J36" si="22">IF(C9="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D36">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
+        <f t="shared" si="22"/>
+        <v>4.375</v>
       </c>
       <c r="E36">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
+        <f t="shared" si="22"/>
+        <v>4.375</v>
       </c>
       <c r="F36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
+        <f t="shared" si="22"/>
+        <v>4.375</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>17.5</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
+        <f t="shared" si="17"/>
+        <v>17.5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="13"/>
+        <v>8.75</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="14"/>
+        <v>8.75</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="15"/>
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:J37" si="11">IF(C10="+",$C$28,0)</f>
+        <f t="shared" ref="C37:J37" si="23">IF(C10="+",$C$28,0)</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="23"/>
+        <v>4.375</v>
       </c>
       <c r="E37">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="23"/>
+        <v>4.375</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="23"/>
+        <v>4.375</v>
       </c>
       <c r="G37">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="23"/>
+        <v>4.375</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="23"/>
+        <v>4.375</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="23"/>
+        <v>4.375</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>26.25</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
+        <f t="shared" si="17"/>
+        <v>26.25</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="13"/>
+        <v>13.125</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="14"/>
+        <v>13.125</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="15"/>
+        <v>39.375</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:J38" si="12">IF(C11="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C38:J38" si="24">IF(C11="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D38">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.375</v>
       </c>
       <c r="E38">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.375</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.375</v>
       </c>
       <c r="G38">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.375</v>
       </c>
       <c r="H38">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.375</v>
       </c>
       <c r="I38">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.375</v>
       </c>
       <c r="J38">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.375</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L38">
         <v>0.6</v>
       </c>
       <c r="M38">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="5"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="13"/>
+        <v>17.5</v>
+      </c>
+      <c r="X38">
+        <v>0.7</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="14"/>
+        <v>12.25</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="15"/>
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:J39" si="13">IF(C12="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C39:J39" si="25">IF(C12="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D39">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="25"/>
+        <v>4.375</v>
       </c>
       <c r="E39">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="25"/>
+        <v>4.375</v>
       </c>
       <c r="F39">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="25"/>
+        <v>4.375</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="25"/>
+        <v>4.375</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="25"/>
+        <v>4.375</v>
       </c>
       <c r="I39">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="25"/>
+        <v>4.375</v>
       </c>
       <c r="J39">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="25"/>
+        <v>4.375</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:J40" si="14">IF(C13="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C40:J40" si="26">IF(C13="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D40">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
+        <f t="shared" si="26"/>
+        <v>4.375</v>
       </c>
       <c r="E40">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
+        <f t="shared" si="26"/>
+        <v>4.375</v>
       </c>
       <c r="F40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
+        <f t="shared" si="26"/>
+        <v>4.375</v>
       </c>
       <c r="H40">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
+        <f t="shared" si="26"/>
+        <v>4.375</v>
       </c>
       <c r="I40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>21.875</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40">
+        <f t="shared" si="17"/>
+        <v>10.9375</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="5"/>
-        <v>3.75</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="13"/>
+        <v>4.375</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="15"/>
+        <v>15.3125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:J41" si="15">IF(C14="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C41:J41" si="27">IF(C14="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D41">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.375</v>
       </c>
       <c r="E41">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.375</v>
       </c>
       <c r="F41">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.375</v>
       </c>
       <c r="G41">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.375</v>
       </c>
       <c r="H41">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.375</v>
       </c>
       <c r="I41">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.375</v>
       </c>
       <c r="J41">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.375</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L41">
         <v>0.8</v>
       </c>
       <c r="M41">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="5"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="13"/>
+        <v>21.875</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="14"/>
+        <v>21.875</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="15"/>
+        <v>59.875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:J42" si="16">IF(C15="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C42:J42" si="28">IF(C15="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D42">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>4.375</v>
       </c>
       <c r="E42">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>4.375</v>
       </c>
       <c r="F42">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>4.375</v>
       </c>
       <c r="G42">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>4.375</v>
       </c>
       <c r="H42">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>4.375</v>
       </c>
       <c r="I42">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>4.375</v>
       </c>
       <c r="J42">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" si="28"/>
+        <v>4.375</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N42">
+        <f>ROUND(K42+M42,0)</f>
+        <v>70</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:J43" si="17">IF(C16="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C43:J43" si="29">IF(C16="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D43">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f t="shared" si="29"/>
+        <v>4.375</v>
       </c>
       <c r="E43">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f t="shared" si="29"/>
+        <v>4.375</v>
       </c>
       <c r="F43">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f t="shared" si="29"/>
+        <v>4.375</v>
       </c>
       <c r="G43">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f t="shared" si="29"/>
+        <v>4.375</v>
       </c>
       <c r="H43">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f t="shared" si="29"/>
+        <v>4.375</v>
       </c>
       <c r="I43">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f t="shared" si="29"/>
+        <v>4.375</v>
       </c>
       <c r="J43">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f t="shared" si="29"/>
+        <v>4.375</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:J44" si="18">IF(C17="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C44:J44" si="30">IF(C17="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="30"/>
+        <v>4.375</v>
       </c>
       <c r="F44">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="30"/>
+        <v>4.375</v>
       </c>
       <c r="G44">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="30"/>
+        <v>4.375</v>
       </c>
       <c r="H44">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="30"/>
+        <v>4.375</v>
       </c>
       <c r="I44">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="30"/>
+        <v>4.375</v>
       </c>
       <c r="J44">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="30"/>
+        <v>4.375</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
-        <v>10.5</v>
+        <f t="shared" si="3"/>
+        <v>30.625</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
+        <f t="shared" si="17"/>
+        <v>30.625</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="5"/>
-        <v>10.5</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="13"/>
+        <v>21.875</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="14"/>
+        <v>21.875</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="15"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:J45" si="19">IF(C18="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C45:J45" si="31">IF(C18="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D45">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="31"/>
+        <v>4.375</v>
       </c>
       <c r="E45">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="31"/>
+        <v>4.375</v>
       </c>
       <c r="F45">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="31"/>
+        <v>4.375</v>
       </c>
       <c r="G45">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="31"/>
+        <v>4.375</v>
       </c>
       <c r="H45">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="31"/>
+        <v>4.375</v>
       </c>
       <c r="I45">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="31"/>
+        <v>4.375</v>
       </c>
       <c r="J45">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="31"/>
+        <v>4.375</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:J46" si="20">IF(C19="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C46:J46" si="32">IF(C19="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D46">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>4.375</v>
       </c>
       <c r="E46">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>4.375</v>
       </c>
       <c r="F46">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>4.375</v>
       </c>
       <c r="G46">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>4.375</v>
       </c>
       <c r="H46">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>4.375</v>
       </c>
       <c r="I46">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>4.375</v>
       </c>
       <c r="J46">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>4.375</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:J47" si="21">IF(C20="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C47:J47" si="33">IF(C20="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D47">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
+        <f t="shared" si="33"/>
+        <v>4.375</v>
       </c>
       <c r="E47">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
+        <f t="shared" si="33"/>
+        <v>4.375</v>
       </c>
       <c r="F47">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
+        <f t="shared" si="33"/>
+        <v>4.375</v>
       </c>
       <c r="G47">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
+        <f t="shared" si="33"/>
+        <v>4.375</v>
       </c>
       <c r="H47">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
+        <f t="shared" si="33"/>
+        <v>4.375</v>
       </c>
       <c r="I47">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
+        <f t="shared" si="33"/>
+        <v>4.375</v>
       </c>
       <c r="J47">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
+        <f t="shared" si="33"/>
+        <v>4.375</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L47">
         <v>0.6</v>
       </c>
       <c r="M47">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="5"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="13"/>
+        <v>21.875</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="14"/>
+        <v>21.875</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="15"/>
+        <v>52.875</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:J48" si="22">IF(C21="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C48:J48" si="34">IF(C21="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D48">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="34"/>
+        <v>4.375</v>
       </c>
       <c r="E48">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="34"/>
+        <v>4.375</v>
       </c>
       <c r="F48">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="34"/>
+        <v>4.375</v>
       </c>
       <c r="G48">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="34"/>
+        <v>4.375</v>
       </c>
       <c r="H48">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="34"/>
+        <v>4.375</v>
       </c>
       <c r="I48">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="34"/>
+        <v>4.375</v>
       </c>
       <c r="J48">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="34"/>
+        <v>4.375</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:J49" si="23">IF(C22="+",$C$28,0)</f>
+        <f t="shared" ref="C49:J49" si="35">IF(C22="+",$C$28,0)</f>
         <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M49">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:J50" si="24">IF(C23="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C50:J50" si="36">IF(C23="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D50">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
+        <f t="shared" si="36"/>
+        <v>4.375</v>
       </c>
       <c r="E50">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
+        <f t="shared" si="36"/>
+        <v>4.375</v>
       </c>
       <c r="F50">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
+        <f t="shared" si="36"/>
+        <v>4.375</v>
       </c>
       <c r="G50">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
+        <f t="shared" si="36"/>
+        <v>4.375</v>
       </c>
       <c r="H50">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
+        <f t="shared" si="36"/>
+        <v>4.375</v>
       </c>
       <c r="I50">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
+        <f t="shared" si="36"/>
+        <v>4.375</v>
       </c>
       <c r="J50">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
+        <f t="shared" si="36"/>
+        <v>4.375</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L50">
         <v>0.3</v>
       </c>
       <c r="M50">
+        <f t="shared" si="17"/>
+        <v>10.5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="5"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="13"/>
+        <v>30.625</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="14"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="15"/>
+        <v>49.125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:J51" si="25">IF(C24="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C51:J51" si="37">IF(C24="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D51">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>4.375</v>
       </c>
       <c r="E51">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>4.375</v>
       </c>
       <c r="F51">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>4.375</v>
       </c>
       <c r="G51">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>4.375</v>
       </c>
       <c r="H51">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>4.375</v>
       </c>
       <c r="I51">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>4.375</v>
       </c>
       <c r="J51">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>4.375</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="13"/>
+        <v>13.125</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="14"/>
+        <v>13.125</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="15"/>
+        <v>58.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>23</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="26">IF(C25="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C52:J52" si="38">IF(C25="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D52">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
+        <f t="shared" si="38"/>
+        <v>4.375</v>
       </c>
       <c r="E52">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
+        <f t="shared" si="38"/>
+        <v>4.375</v>
       </c>
       <c r="F52">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
+        <f t="shared" si="38"/>
+        <v>4.375</v>
       </c>
       <c r="G52">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
+        <f t="shared" si="38"/>
+        <v>4.375</v>
       </c>
       <c r="H52">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
+        <f t="shared" si="38"/>
+        <v>4.375</v>
       </c>
       <c r="I52">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
+        <f t="shared" si="38"/>
+        <v>4.375</v>
       </c>
       <c r="J52">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
+        <f t="shared" si="38"/>
+        <v>4.375</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L52">
         <v>0.85</v>
       </c>
       <c r="M52">
+        <f t="shared" si="17"/>
+        <v>29.75</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="5"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="15"/>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>24</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:J53" si="27">IF(C26="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C53:J53" si="39">IF(C26="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D53">
-        <f t="shared" si="27"/>
-        <v>1.5</v>
+        <f t="shared" si="39"/>
+        <v>4.375</v>
       </c>
       <c r="E53">
-        <f t="shared" si="27"/>
-        <v>1.5</v>
+        <f t="shared" si="39"/>
+        <v>4.375</v>
       </c>
       <c r="F53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="27"/>
-        <v>1.5</v>
+        <f t="shared" si="39"/>
+        <v>4.375</v>
       </c>
       <c r="H53">
-        <f t="shared" si="27"/>
-        <v>1.5</v>
+        <f t="shared" si="39"/>
+        <v>4.375</v>
       </c>
       <c r="I53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>21.875</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
+        <f t="shared" si="17"/>
+        <v>21.875</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="5"/>
-        <v>7.5</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="13"/>
+        <v>4.375</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="14"/>
+        <v>4.375</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="15"/>
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>25</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:J54" si="28">IF(C27="+",$C$28,0)</f>
+        <f t="shared" ref="C54:J54" si="40">IF(C27="+",$C$28,0)</f>
         <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="P54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <f>ROUND(AA29,0)</f>
+        <v>40</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f>IF(C57&gt;=55,"Зачет","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" ref="C58:C82" si="41">ROUND(AA30,0)</f>
+        <v>67</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" ref="D58:D82" si="42">IF(C58&gt;=55,"Зачет","-")</f>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="41"/>
+        <v>76</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="41"/>
+        <v>63</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="41"/>
+        <v>68</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="41"/>
+        <v>86</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="41"/>
+        <v>36</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="41"/>
+        <v>39</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>10</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="41"/>
+        <v>43</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>13</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="41"/>
+        <v>60</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>15</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>16</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="41"/>
+        <v>53</v>
+      </c>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>17</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="D73" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>18</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>19</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="41"/>
+        <v>53</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>20</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="41"/>
+        <v>85</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>21</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>22</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="41"/>
+        <v>49</v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="41"/>
+        <v>58</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>24</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="41"/>
+        <v>85</v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>25</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="41"/>
+        <v>36</v>
+      </c>
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>26</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2021/scores/2D01/2D01.xlsx
+++ b/2021/scores/2D01/2D01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077CB46-EA8E-4C26-978B-9177453EB995}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A968966-2198-4CAF-8BF6-A058A3327B69}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="48">
   <si>
     <t>Александрова Анастасия Игоревна</t>
   </si>
@@ -516,10 +516,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:D76"/>
+      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,21 +954,33 @@
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1160,6 +1172,9 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13">
+        <v>8</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2604,7 +2619,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
@@ -2612,30 +2627,30 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K34">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M34">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>28.8</v>
       </c>
       <c r="N34">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
@@ -2643,7 +2658,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
         <f t="shared" si="3"/>
@@ -2655,7 +2670,7 @@
       </c>
       <c r="S34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T34">
         <f t="shared" si="6"/>
@@ -2671,21 +2686,21 @@
       </c>
       <c r="W34">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Y34">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>16.2</v>
       </c>
       <c r="Z34">
         <v>5</v>
       </c>
       <c r="AA34">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.3">
@@ -3093,7 +3108,7 @@
       </c>
       <c r="AA38">
         <f t="shared" si="9"/>
-        <v>20.75</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.3">
@@ -3917,7 +3932,7 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:J56" si="16">IF(C22="+",$C$26,0)</f>
+        <f t="shared" ref="C47:J50" si="16">IF(C22="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D47">
@@ -4455,11 +4470,11 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" si="17"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
@@ -4519,7 +4534,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D01/2D01.xlsx
+++ b/2021/scores/2D01/2D01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A968966-2198-4CAF-8BF6-A058A3327B69}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC24435-A164-4849-8D31-DCFEC9B9DDFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="48">
   <si>
     <t>Александрова Анастасия Игоревна</t>
   </si>
@@ -516,10 +516,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +609,9 @@
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
@@ -622,12 +624,16 @@
         <v>32</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1920,7 +1926,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -1928,18 +1934,18 @@
       </c>
       <c r="K27">
         <f>SUM(C27:J27)</f>
-        <v>31.5</v>
+        <v>36</v>
       </c>
       <c r="L27">
         <v>0.7</v>
       </c>
       <c r="M27">
         <f>L27*K27</f>
-        <v>22.049999999999997</v>
+        <v>25.2</v>
       </c>
       <c r="N27">
         <f>ROUND(K27+M27,0)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27:O50" si="1">IF(L2="+",$C$26,0)</f>
@@ -1959,7 +1965,7 @@
       </c>
       <c r="S27">
         <f t="shared" ref="S27:S50" si="5">IF(P2="+",$C$26,0)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27:T50" si="6">IF(Q2="+",$C$26,0)</f>
@@ -1971,25 +1977,25 @@
       </c>
       <c r="V27">
         <f t="shared" ref="V27:V50" si="8">IF(S2="+",$C$26,0)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W27">
         <f>SUM(O27:V27)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y27">
         <f>X27*W27</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="Z27">
         <v>8</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27:AA50" si="9">Y27+M27+K2+T2+Z27</f>
-        <v>49.05</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
@@ -4358,11 +4364,11 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ref="C53:C76" si="17">ROUND(AA27,0)</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D53" s="3" t="str">
         <f>IF(C53&gt;=55,"Зачет","-")</f>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">

--- a/2021/scores/2D01/2D01.xlsx
+++ b/2021/scores/2D01/2D01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC24435-A164-4849-8D31-DCFEC9B9DDFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9C17B-8C2C-49DD-BAED-E6D6AC90A1DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="48">
   <si>
     <t>Александрова Анастасия Игоревна</t>
   </si>
@@ -516,10 +516,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53:D53"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,9 @@
         <v>32</v>
       </c>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1176,13 +1178,19 @@
       <c r="H13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K13">
         <v>8</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1191,7 +1199,9 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1596,7 +1606,9 @@
         <v>32</v>
       </c>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="T20" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2097,7 +2109,7 @@
       </c>
       <c r="AA28">
         <f t="shared" si="9"/>
-        <v>76.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
@@ -3045,26 +3057,26 @@
       </c>
       <c r="I38">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J38">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K38">
         <f t="shared" si="10"/>
-        <v>22.5</v>
+        <v>31.5</v>
       </c>
       <c r="L38">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="M38">
         <f t="shared" si="14"/>
-        <v>11.25</v>
+        <v>28.35</v>
       </c>
       <c r="N38">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
@@ -3072,7 +3084,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q38">
         <f t="shared" si="3"/>
@@ -3100,21 +3112,21 @@
       </c>
       <c r="W38">
         <f t="shared" si="12"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
       <c r="Y38">
         <f t="shared" si="13"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Z38">
         <v>5</v>
       </c>
       <c r="AA38">
         <f t="shared" si="9"/>
-        <v>28.75</v>
+        <v>55.35</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.3">
@@ -3828,7 +3840,7 @@
       </c>
       <c r="AA45">
         <f t="shared" si="9"/>
-        <v>55.349999999999994</v>
+        <v>65.349999999999994</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.3">
@@ -4380,7 +4392,7 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" si="17"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" ref="D54:D76" si="18">IF(C54&gt;=55,"Зачет","-")</f>
@@ -4540,11 +4552,11 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" si="17"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4652,7 +4664,7 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" si="17"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D01/2D01.xlsx
+++ b/2021/scores/2D01/2D01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9C17B-8C2C-49DD-BAED-E6D6AC90A1DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A1F8E7-B641-444A-92EA-09349AE5C33C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="48">
   <si>
     <t>Александрова Анастасия Игоревна</t>
   </si>
@@ -516,10 +516,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53:D76"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,22 +1858,30 @@
       <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K25">
         <v>10</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -4269,7 +4277,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G50">
         <f t="shared" si="16"/>
@@ -4281,26 +4289,26 @@
       </c>
       <c r="I50">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J50">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K50">
         <f t="shared" si="10"/>
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
         <f t="shared" si="14"/>
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="N50">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
@@ -4308,7 +4316,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
         <f t="shared" si="3"/>
@@ -4336,21 +4344,21 @@
       </c>
       <c r="W50">
         <f t="shared" si="12"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50">
         <f t="shared" si="13"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
       <c r="AA50">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
@@ -4744,11 +4752,11 @@
       </c>
       <c r="C76" s="2">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
   </sheetData>

--- a/2021/scores/2D01/2D01.xlsx
+++ b/2021/scores/2D01/2D01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A1F8E7-B641-444A-92EA-09349AE5C33C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5009ECD-AB00-46D6-BDF2-6D3DFBFD00DE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="48">
   <si>
     <t>Александрова Анастасия Игоревна</t>
   </si>
@@ -516,10 +516,10 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76:D76"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1005,9 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1023,9 @@
       <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1033,8 +1037,12 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
         <v>32</v>
@@ -2735,7 +2743,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -2759,7 +2767,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
@@ -2767,18 +2775,18 @@
       </c>
       <c r="K35">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
         <f t="shared" si="14"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <f t="shared" si="11"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
@@ -2798,11 +2806,11 @@
       </c>
       <c r="S35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U35">
         <f t="shared" si="7"/>
@@ -2814,21 +2822,21 @@
       </c>
       <c r="W35">
         <f t="shared" si="12"/>
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
         <f t="shared" si="13"/>
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="Z35">
         <v>6</v>
       </c>
       <c r="AA35">
         <f t="shared" si="9"/>
-        <v>46.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.3">
@@ -4512,11 +4520,11 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" si="17"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
